--- a/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="24640" windowHeight="15000" tabRatio="684"/>
+    <workbookView xWindow="4580" yWindow="0" windowWidth="25840" windowHeight="22540" tabRatio="684" firstSheet="47" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="A21.sector.csv" sheetId="5" r:id="rId1"/>
@@ -56,9 +56,9 @@
     <sheet name="A26.sector.csv" sheetId="6" r:id="rId47"/>
     <sheet name="A26.subsector_logit.csv" sheetId="32" r:id="rId48"/>
     <sheet name="A26.subsector_shrwt.csv" sheetId="33" r:id="rId49"/>
-    <sheet name="A26_subsector_interp.csv" sheetId="51" r:id="rId50"/>
+    <sheet name="A26.subsector_interp.csv" sheetId="51" r:id="rId50"/>
     <sheet name="A26.globaltech_cost.csv" sheetId="31" r:id="rId51"/>
-    <sheet name="A26.globaltech_coef.csv" sheetId="7" r:id="rId52"/>
+    <sheet name="A26.globaltech_eff.csv" sheetId="7" r:id="rId52"/>
     <sheet name="A26.globaltech_shrwt.csv" sheetId="52" r:id="rId53"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="194">
   <si>
     <t>technology</t>
   </si>
@@ -370,9 +370,6 @@
     <t>electricity</t>
   </si>
   <si>
-    <t># Final energy delivery sectors - supplysector characteristics</t>
-  </si>
-  <si>
     <t>rooftop_pv</t>
   </si>
   <si>
@@ -484,9 +481,6 @@
     <t># Electric sector subsector logit exponents</t>
   </si>
   <si>
-    <t>rooftop_PV</t>
-  </si>
-  <si>
     <t>distributed_solar</t>
   </si>
   <si>
@@ -548,9 +542,6 @@
   </si>
   <si>
     <t># Final energy transformation default technology shareweights</t>
-  </si>
-  <si>
-    <t># Final energy delivery input-output coefficients</t>
   </si>
   <si>
     <t># Final energy delivery cost adders</t>
@@ -645,6 +636,24 @@
   <si>
     <t>PalmFruit</t>
   </si>
+  <si>
+    <t>backup-cap-cost</t>
+  </si>
+  <si>
+    <t># Final energy delivery subsector shareweight interpolation</t>
+  </si>
+  <si>
+    <t># Final energy delivery subsector logit exponents</t>
+  </si>
+  <si>
+    <t># Final energy delivery and reliability (backup) sectors - supplysector characteristics</t>
+  </si>
+  <si>
+    <t>CSP gas hybrid mode</t>
+  </si>
+  <si>
+    <t># Final energy delivery input-output efficiencies (global technologies)</t>
+  </si>
 </sst>
 </file>
 
@@ -695,8 +704,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1607">
+  <cellStyleXfs count="1671">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2311,7 +2384,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1607">
+  <cellStyles count="1671">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3115,6 +3188,38 @@
     <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3918,6 +4023,38 @@
     <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4249,7 +4386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -7960,7 +8097,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7974,7 +8111,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7994,10 +8131,10 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8062,7 +8199,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8079,7 +8216,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8109,7 +8246,7 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>-10</v>
@@ -8120,7 +8257,7 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>-10</v>
@@ -8142,7 +8279,7 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>-6</v>
@@ -8153,7 +8290,7 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>-6</v>
@@ -8164,7 +8301,7 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <v>-6</v>
@@ -8175,7 +8312,7 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>-6</v>
@@ -8186,7 +8323,7 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>-6</v>
@@ -8197,7 +8334,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>-6</v>
@@ -8274,7 +8411,7 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -8288,7 +8425,7 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -8316,7 +8453,7 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -8330,7 +8467,7 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -8344,7 +8481,7 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <v>2065</v>
@@ -8358,7 +8495,7 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>2065</v>
@@ -8372,7 +8509,7 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>2065</v>
@@ -8386,7 +8523,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -8400,7 +8537,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -8493,7 +8630,7 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -8513,7 +8650,7 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -8573,7 +8710,7 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -8593,7 +8730,7 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
@@ -8613,7 +8750,7 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -8633,7 +8770,7 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -8653,7 +8790,7 @@
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -8673,7 +8810,7 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -8693,7 +8830,7 @@
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
@@ -8713,7 +8850,7 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -8733,7 +8870,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -8774,10 +8911,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8798,7 +8935,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -8806,7 +8943,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -8824,10 +8961,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8842,12 +8979,12 @@
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8858,36 +8995,42 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
         <v>147</v>
       </c>
-      <c r="F2" t="s">
-        <v>149</v>
-      </c>
       <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
         <v>150</v>
       </c>
-      <c r="H2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -8898,22 +9041,28 @@
       <c r="H3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
         <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -8924,22 +9073,28 @@
       <c r="H4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -8950,22 +9105,28 @@
       <c r="H5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>30</v>
@@ -8975,6 +9136,12 @@
       </c>
       <c r="H6">
         <v>0.25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -9008,7 +9175,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -9054,7 +9221,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9089,7 +9256,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9124,7 +9291,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9156,10 +9323,10 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -9191,10 +9358,10 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -9226,10 +9393,10 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9261,10 +9428,10 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -9296,10 +9463,10 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9331,10 +9498,10 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9369,7 +9536,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -9404,7 +9571,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9439,7 +9606,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9471,10 +9638,10 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -9506,10 +9673,10 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -9541,10 +9708,10 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9576,10 +9743,10 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -9611,10 +9778,10 @@
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -9646,10 +9813,10 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -9681,10 +9848,10 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -9716,10 +9883,10 @@
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -9751,10 +9918,10 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -9786,10 +9953,10 @@
         <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -9821,10 +9988,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -9881,7 +10048,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -9939,7 +10106,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -9986,7 +10153,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -10033,7 +10200,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -10077,10 +10244,10 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -10124,10 +10291,10 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -10171,10 +10338,10 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -10218,10 +10385,10 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>87</v>
@@ -10265,10 +10432,10 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>87</v>
@@ -10312,10 +10479,10 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>87</v>
@@ -10362,7 +10529,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -10409,7 +10576,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -10456,7 +10623,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -10500,10 +10667,10 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -10547,10 +10714,10 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -10594,13 +10761,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -10641,13 +10808,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>0.96</v>
@@ -10688,13 +10855,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -10735,13 +10902,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -10782,13 +10949,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21">
         <v>0.96</v>
@@ -10829,13 +10996,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -10876,13 +11043,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -10923,13 +11090,13 @@
         <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10970,13 +11137,13 @@
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25">
         <v>0.1</v>
@@ -11017,13 +11184,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -11064,13 +11231,13 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -11139,7 +11306,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -11153,13 +11320,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G2">
         <v>1971</v>
@@ -11200,10 +11367,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3">
         <v>0.15</v>
@@ -11250,10 +11417,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -11300,10 +11467,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -11347,13 +11514,13 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -11397,13 +11564,13 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>0.15</v>
@@ -11447,13 +11614,13 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>0.15</v>
@@ -11497,13 +11664,13 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>0.15</v>
@@ -11547,13 +11714,13 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10">
         <v>0.15</v>
@@ -11597,13 +11764,13 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>0.15</v>
@@ -11650,10 +11817,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12">
         <v>0.15</v>
@@ -11700,10 +11867,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13">
         <v>0.15</v>
@@ -11750,10 +11917,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14">
         <v>0.15</v>
@@ -11797,13 +11964,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15">
         <v>0.15</v>
@@ -11847,13 +12014,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16">
         <v>0.15</v>
@@ -11897,13 +12064,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E17">
         <v>0.125</v>
@@ -11947,13 +12114,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18">
         <v>0.125</v>
@@ -11997,13 +12164,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19">
         <v>0.125</v>
@@ -12047,13 +12214,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20">
         <v>0.125</v>
@@ -12097,13 +12264,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E21">
         <v>0.125</v>
@@ -12147,13 +12314,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22">
         <v>0.125</v>
@@ -12197,13 +12364,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23">
         <v>0.125</v>
@@ -12247,13 +12414,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E24">
         <v>0.1</v>
@@ -12323,7 +12490,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -12337,10 +12504,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>1971</v>
@@ -12381,10 +12548,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3">
         <v>0.8</v>
@@ -12429,10 +12596,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -12477,10 +12644,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>0.8</v>
@@ -12522,13 +12689,13 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>0.8</v>
@@ -12570,13 +12737,13 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7">
         <v>0.8</v>
@@ -12618,13 +12785,13 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>0.8</v>
@@ -12666,13 +12833,13 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <v>0.8</v>
@@ -12714,13 +12881,13 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10">
         <v>0.8</v>
@@ -12762,13 +12929,13 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11">
         <v>0.8</v>
@@ -12813,10 +12980,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -12861,10 +13028,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13">
         <v>0.8</v>
@@ -12909,10 +13076,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E14">
         <v>0.8</v>
@@ -12954,13 +13121,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>0.9</v>
@@ -13001,13 +13168,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16">
         <v>0.9</v>
@@ -13049,13 +13216,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17">
         <v>0.45</v>
@@ -13097,13 +13264,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E18">
         <v>0.45</v>
@@ -13145,13 +13312,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E19">
         <v>0.25</v>
@@ -13193,13 +13360,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E20">
         <v>0.25</v>
@@ -13241,13 +13408,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E21">
         <v>0.31</v>
@@ -13289,13 +13456,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E22">
         <v>0.73</v>
@@ -13337,13 +13504,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23">
         <v>0.9</v>
@@ -13384,13 +13551,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E24">
         <v>0.25</v>
@@ -13665,7 +13832,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13679,7 +13846,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -13693,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>1971</v>
@@ -13734,10 +13901,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" s="3">
         <v>1.472</v>
@@ -13779,10 +13946,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3">
         <v>0.93700000000000006</v>
@@ -13824,10 +13991,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="3">
         <v>1.718</v>
@@ -13866,13 +14033,13 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="3">
         <v>1.08</v>
@@ -13911,13 +14078,13 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3">
         <v>0.65200000000000002</v>
@@ -13956,13 +14123,13 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3">
         <v>0.82699999999999996</v>
@@ -14001,13 +14168,13 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="3">
         <v>1.08</v>
@@ -14046,13 +14213,13 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" s="3">
         <v>0.84299999999999997</v>
@@ -14091,13 +14258,13 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E11" s="3">
         <v>1.212</v>
@@ -14139,10 +14306,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" s="3">
         <v>1.4930000000000001</v>
@@ -14184,10 +14351,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="3">
         <v>0.95</v>
@@ -14229,10 +14396,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E14" s="3">
         <v>1.6160000000000001</v>
@@ -14271,13 +14438,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15" s="3">
         <v>4.5999999999999999E-2</v>
@@ -14316,13 +14483,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="3">
         <v>0.159</v>
@@ -14361,13 +14528,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E17" s="3">
         <v>2.2799999999999998</v>
@@ -14406,13 +14573,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="3">
         <v>3.9089999999999998</v>
@@ -14481,7 +14648,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -14521,7 +14688,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -14544,10 +14711,10 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -14570,10 +14737,10 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -14596,10 +14763,10 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -14625,7 +14792,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -14648,10 +14815,10 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -14674,10 +14841,10 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -14694,10 +14861,10 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -14714,10 +14881,10 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -14734,10 +14901,10 @@
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
@@ -14757,7 +14924,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -14777,7 +14944,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -14797,7 +14964,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
@@ -14814,10 +14981,10 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -14834,10 +15001,10 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -14854,10 +15021,10 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -14874,10 +15041,10 @@
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -14894,10 +15061,10 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -14914,10 +15081,10 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
@@ -14937,7 +15104,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -14957,7 +15124,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -14977,7 +15144,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
@@ -14994,10 +15161,10 @@
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
@@ -15014,10 +15181,10 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
@@ -15034,10 +15201,10 @@
         <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -15054,10 +15221,10 @@
         <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
@@ -15074,10 +15241,10 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>
@@ -15094,10 +15261,10 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
@@ -15114,10 +15281,10 @@
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
@@ -15134,10 +15301,10 @@
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
         <v>53</v>
@@ -15178,7 +15345,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15218,7 +15385,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>0.91</v>
@@ -15244,10 +15411,10 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>0.91</v>
@@ -15273,10 +15440,10 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>0.91</v>
@@ -15305,7 +15472,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>0.91</v>
@@ -15356,7 +15523,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15378,7 +15545,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -15426,7 +15593,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -15442,7 +15609,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -15453,7 +15620,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -15464,10 +15631,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>-6</v>
@@ -15475,10 +15642,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>-6</v>
@@ -15517,7 +15684,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15539,7 +15706,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -15553,7 +15720,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -15567,10 +15734,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -15581,10 +15748,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -15626,7 +15793,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15654,7 +15821,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -15674,7 +15841,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -15694,10 +15861,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -15714,10 +15881,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
@@ -15761,7 +15928,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -15807,7 +15974,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -15848,7 +16015,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -15889,13 +16056,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -15930,13 +16097,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -15998,7 +16165,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -16023,7 +16190,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -16043,7 +16210,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -16063,13 +16230,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -16083,13 +16250,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>87</v>
@@ -16129,7 +16296,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -16151,7 +16318,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -16168,7 +16335,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -16185,13 +16352,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -16202,13 +16369,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -16541,7 +16708,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -16563,7 +16730,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -16580,7 +16747,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -16597,7 +16764,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -16614,7 +16781,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -16662,7 +16829,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16678,7 +16845,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -16689,10 +16856,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>-10</v>
@@ -16700,7 +16867,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -16711,10 +16878,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>-10</v>
@@ -16722,7 +16889,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>98</v>
@@ -16733,10 +16900,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>-10</v>
@@ -16744,10 +16911,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>-10</v>
@@ -16755,10 +16922,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>-6</v>
@@ -16766,7 +16933,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>98</v>
@@ -16777,10 +16944,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C12">
         <v>-6</v>
@@ -16788,10 +16955,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13">
         <v>-6</v>
@@ -16799,10 +16966,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14">
         <v>-6</v>
@@ -16840,7 +17007,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -16862,7 +17029,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -16876,10 +17043,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -16890,7 +17057,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -16904,10 +17071,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -16918,7 +17085,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>98</v>
@@ -16932,10 +17099,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -16946,10 +17113,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -16960,10 +17127,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
@@ -16974,7 +17141,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>98</v>
@@ -16988,10 +17155,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -17002,10 +17169,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -17016,10 +17183,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -17030,7 +17197,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -17044,10 +17211,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -17058,7 +17225,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -17072,10 +17239,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -17086,7 +17253,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>98</v>
@@ -17100,10 +17267,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -17114,10 +17281,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -17128,10 +17295,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -17142,7 +17309,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
@@ -17156,10 +17323,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -17170,10 +17337,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -17184,10 +17351,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -17226,7 +17393,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -17269,13 +17436,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -17307,13 +17474,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -17345,13 +17512,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -17384,13 +17551,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -17423,13 +17590,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -17461,13 +17628,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
@@ -17499,13 +17666,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -17537,13 +17704,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
         <v>57</v>
@@ -17575,13 +17742,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -17613,13 +17780,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -17651,13 +17818,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -17689,13 +17856,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -17727,13 +17894,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -17765,13 +17932,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -17803,13 +17970,13 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
@@ -17869,7 +18036,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -17912,13 +18079,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -17950,13 +18117,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -17988,13 +18155,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -18026,13 +18193,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -18064,13 +18231,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -18102,13 +18269,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -18140,13 +18307,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -18178,13 +18345,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -18216,16 +18383,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1">
         <v>0.626</v>
@@ -18254,16 +18421,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1">
         <v>0.626</v>
@@ -18292,13 +18459,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -18330,13 +18497,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -18368,16 +18535,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -18406,16 +18573,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -18444,16 +18611,16 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -18508,7 +18675,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18530,13 +18697,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -18547,13 +18714,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -18564,13 +18731,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -18581,13 +18748,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -18598,13 +18765,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -18615,13 +18782,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -18632,13 +18799,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -18649,13 +18816,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -18666,13 +18833,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -18683,13 +18850,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -18700,13 +18867,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -18717,13 +18884,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -18734,13 +18901,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -18751,13 +18918,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -18768,13 +18935,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -18812,7 +18979,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -18846,13 +19013,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3">
         <v>0.91</v>
@@ -18875,13 +19042,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D4">
         <v>0.91</v>
@@ -18904,13 +19071,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>0.91</v>
@@ -18944,10 +19111,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18961,7 +19128,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18983,7 +19150,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -19000,7 +19167,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -19017,7 +19184,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -19034,7 +19201,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -19051,7 +19218,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -19068,7 +19235,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -19085,7 +19252,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -19102,7 +19269,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -19119,7 +19286,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -19136,7 +19303,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -19153,7 +19320,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -19165,6 +19332,40 @@
         <v>32</v>
       </c>
       <c r="E13">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
         <v>-3</v>
       </c>
     </row>
@@ -19181,10 +19382,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19201,7 +19402,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -19217,10 +19418,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>-6</v>
@@ -19228,10 +19429,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>-6</v>
@@ -19239,10 +19440,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>-6</v>
@@ -19250,10 +19451,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>-6</v>
@@ -19261,10 +19462,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>-6</v>
@@ -19272,10 +19473,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>-6</v>
@@ -19283,10 +19484,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>-6</v>
@@ -19294,10 +19495,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>-6</v>
@@ -19305,10 +19506,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>-6</v>
@@ -19316,10 +19517,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>-6</v>
@@ -19327,12 +19528,34 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>-6</v>
       </c>
     </row>
@@ -19349,10 +19572,10 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19369,7 +19592,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19391,10 +19614,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -19405,10 +19628,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -19419,10 +19642,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -19433,10 +19656,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -19447,10 +19670,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -19461,10 +19684,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -19475,10 +19698,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -19489,10 +19712,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
@@ -19503,10 +19726,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -19517,10 +19740,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -19531,15 +19754,43 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
@@ -19763,7 +20014,7 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -19783,7 +20034,7 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -19803,7 +20054,7 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -19831,7 +20082,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19846,7 +20097,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -20105,10 +20356,10 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20121,7 +20372,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -20152,143 +20403,143 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
       <c r="E3">
-        <v>0.14000000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="F3">
-        <v>0.14000000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="G3">
-        <v>0.14000000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="H3">
-        <v>0.14000000000000001</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
       </c>
       <c r="E5">
-        <v>1.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5">
-        <v>1.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G5">
-        <v>1.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H5">
-        <v>1.25</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
       </c>
       <c r="E6">
-        <v>3.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F6">
-        <v>3.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G6">
-        <v>2.81</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H6">
-        <v>1.79</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
       </c>
       <c r="E7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G7">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="H7">
-        <v>0.44</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
@@ -20308,91 +20559,91 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>57</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
       </c>
       <c r="E11">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -20412,27 +20663,79 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
@@ -20449,10 +20752,10 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20461,15 +20764,16 @@
     <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -20486,118 +20790,136 @@
         <v>1971</v>
       </c>
       <c r="F2">
+        <v>2005</v>
+      </c>
+      <c r="G2">
         <v>2100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0.377</v>
+      </c>
+      <c r="F3">
+        <v>0.377</v>
+      </c>
+      <c r="G3">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0.307</v>
+      </c>
+      <c r="F4">
+        <v>0.307</v>
+      </c>
+      <c r="G4">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>98</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -20608,104 +20930,168 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
     </row>
@@ -20725,10 +21111,10 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20740,7 +21126,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20762,13 +21148,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -20779,13 +21165,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -20796,13 +21182,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -20813,13 +21199,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -20830,13 +21216,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -20847,13 +21233,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -20864,13 +21250,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -20881,13 +21267,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -20898,13 +21284,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -20915,13 +21301,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -20932,18 +21318,52 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
@@ -21245,7 +21665,7 @@
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10" s="3">
         <v>111.78730206783794</v>
@@ -21268,7 +21688,7 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E11" s="3">
         <v>582.47719635002909</v>
@@ -21288,10 +21708,10 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -21311,10 +21731,10 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13" s="3">
         <v>142.57460317460317</v>
@@ -21334,10 +21754,10 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E14" s="3">
         <v>128</v>
@@ -21612,7 +22032,7 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -21629,7 +22049,7 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -21646,7 +22066,7 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>0</v>

--- a/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="0" windowWidth="25840" windowHeight="22540" tabRatio="684" firstSheet="47" activeTab="51"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="684" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="A21.sector.csv" sheetId="5" r:id="rId1"/>
@@ -704,8 +704,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1671">
+  <cellStyleXfs count="1675">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2384,7 +2388,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1671">
+  <cellStyles count="1675">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3220,6 +3224,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4055,6 +4061,8 @@
     <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -20754,7 +20762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -21855,8 +21863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22001,10 +22009,10 @@
         <v>82</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -22018,10 +22026,10 @@
         <v>84</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="684" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32140" windowHeight="21340" tabRatio="684" firstSheet="43" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="A21.sector.csv" sheetId="5" r:id="rId1"/>
@@ -16,50 +16,53 @@
     <sheet name="A21.globaltech_coef.csv" sheetId="22" r:id="rId7"/>
     <sheet name="A21.tradedtech_coef.csv" sheetId="13" r:id="rId8"/>
     <sheet name="A21.globaltech_shrwt.csv" sheetId="23" r:id="rId9"/>
-    <sheet name="A21.tradedtech_shrwt.csv" sheetId="24" r:id="rId10"/>
-    <sheet name="A22.sector.csv" sheetId="9" r:id="rId11"/>
-    <sheet name="A22.subsector_logit.csv" sheetId="25" r:id="rId12"/>
-    <sheet name="A22.subsector_shrwt.csv" sheetId="8" r:id="rId13"/>
-    <sheet name="A22.subsector_interp.csv" sheetId="26" r:id="rId14"/>
-    <sheet name="A22.globaltech_cost.csv" sheetId="27" r:id="rId15"/>
-    <sheet name="A22.globaltech_coef.csv" sheetId="3" r:id="rId16"/>
-    <sheet name="A22.globaltech_shrwt.csv" sheetId="29" r:id="rId17"/>
-    <sheet name="A22.globaltech_retirement.csv" sheetId="28" r:id="rId18"/>
-    <sheet name="A22.globaltech_co2capture.csv" sheetId="30" r:id="rId19"/>
-    <sheet name="A23.sector.csv" sheetId="35" r:id="rId20"/>
-    <sheet name="A23.subsector_logit.csv" sheetId="37" r:id="rId21"/>
-    <sheet name="A23.subsector_shrwt.csv" sheetId="38" r:id="rId22"/>
-    <sheet name="A23.subsector_interp.csv" sheetId="39" r:id="rId23"/>
-    <sheet name="A23.chp_elecratio.csv" sheetId="42" r:id="rId24"/>
-    <sheet name="A23.globalinttech.csv" sheetId="49" r:id="rId25"/>
-    <sheet name="A23.globaltech_shrwt.csv" sheetId="45" r:id="rId26"/>
-    <sheet name="A23.globaltech_eff.csv" sheetId="43" r:id="rId27"/>
-    <sheet name="A23.globaltech_capital.csv" sheetId="46" r:id="rId28"/>
-    <sheet name="A23.globaltech_OMfixed.csv" sheetId="47" r:id="rId29"/>
-    <sheet name="A23.globaltech_OMvar.csv" sheetId="44" r:id="rId30"/>
-    <sheet name="A23.globaltech_retirement.csv" sheetId="48" r:id="rId31"/>
-    <sheet name="A23.globaltech_co2capture.csv" sheetId="50" r:id="rId32"/>
-    <sheet name="A24.sector.csv" sheetId="53" r:id="rId33"/>
-    <sheet name="A24.subsector_logit.csv" sheetId="54" r:id="rId34"/>
-    <sheet name="A24.subsector_shrwt.csv" sheetId="55" r:id="rId35"/>
-    <sheet name="A24.subsector_interp.csv" sheetId="56" r:id="rId36"/>
-    <sheet name="A24.globaltech_cost.csv" sheetId="57" r:id="rId37"/>
-    <sheet name="A24.globaltech_coef.csv" sheetId="58" r:id="rId38"/>
-    <sheet name="A24.globaltech_shrwt.csv" sheetId="59" r:id="rId39"/>
-    <sheet name="A25.sector.csv" sheetId="60" r:id="rId40"/>
-    <sheet name="A25.subsector_logit.csv" sheetId="61" r:id="rId41"/>
-    <sheet name="A25.subsector_shrwt.csv" sheetId="62" r:id="rId42"/>
-    <sheet name="A25.globaltech_cost.csv" sheetId="64" r:id="rId43"/>
-    <sheet name="A25.globaltech_eff.csv" sheetId="65" r:id="rId44"/>
-    <sheet name="A25.globaltech_shrwt.csv" sheetId="66" r:id="rId45"/>
-    <sheet name="A25.globaltech_co2capture.csv" sheetId="67" r:id="rId46"/>
-    <sheet name="A26.sector.csv" sheetId="6" r:id="rId47"/>
-    <sheet name="A26.subsector_logit.csv" sheetId="32" r:id="rId48"/>
-    <sheet name="A26.subsector_shrwt.csv" sheetId="33" r:id="rId49"/>
-    <sheet name="A26.subsector_interp.csv" sheetId="51" r:id="rId50"/>
-    <sheet name="A26.globaltech_cost.csv" sheetId="31" r:id="rId51"/>
-    <sheet name="A26.globaltech_eff.csv" sheetId="7" r:id="rId52"/>
-    <sheet name="A26.globaltech_shrwt.csv" sheetId="52" r:id="rId53"/>
+    <sheet name="A21.globaltech_keyword.csv" sheetId="68" r:id="rId10"/>
+    <sheet name="A21.tradedtech_shrwt.csv" sheetId="24" r:id="rId11"/>
+    <sheet name="A22.sector.csv" sheetId="9" r:id="rId12"/>
+    <sheet name="A22.subsector_logit.csv" sheetId="25" r:id="rId13"/>
+    <sheet name="A22.subsector_shrwt.csv" sheetId="8" r:id="rId14"/>
+    <sheet name="A22.subsector_interp.csv" sheetId="26" r:id="rId15"/>
+    <sheet name="A22.globaltech_cost.csv" sheetId="27" r:id="rId16"/>
+    <sheet name="A22.globaltech_coef.csv" sheetId="3" r:id="rId17"/>
+    <sheet name="A22.globaltech_shrwt.csv" sheetId="29" r:id="rId18"/>
+    <sheet name="A22.globaltech_retirement.csv" sheetId="28" r:id="rId19"/>
+    <sheet name="A22.globaltech_co2capture.csv" sheetId="30" r:id="rId20"/>
+    <sheet name="A23.sector.csv" sheetId="35" r:id="rId21"/>
+    <sheet name="A23.subsector_logit.csv" sheetId="37" r:id="rId22"/>
+    <sheet name="A23.subsector_shrwt.csv" sheetId="38" r:id="rId23"/>
+    <sheet name="A23.subsector_interp.csv" sheetId="39" r:id="rId24"/>
+    <sheet name="A23.chp_elecratio.csv" sheetId="42" r:id="rId25"/>
+    <sheet name="A23.globalinttech.csv" sheetId="49" r:id="rId26"/>
+    <sheet name="A23.globaltech_shrwt.csv" sheetId="45" r:id="rId27"/>
+    <sheet name="A23.globaltech_keyword.csv" sheetId="69" r:id="rId28"/>
+    <sheet name="A23.globaltech_eff.csv" sheetId="43" r:id="rId29"/>
+    <sheet name="A23.globaltech_capital.csv" sheetId="46" r:id="rId30"/>
+    <sheet name="A23.globaltech_OMfixed.csv" sheetId="47" r:id="rId31"/>
+    <sheet name="A23.globaltech_OMvar.csv" sheetId="44" r:id="rId32"/>
+    <sheet name="A23.globaltech_retirement.csv" sheetId="48" r:id="rId33"/>
+    <sheet name="A23.globaltech_co2capture.csv" sheetId="50" r:id="rId34"/>
+    <sheet name="A24.sector.csv" sheetId="53" r:id="rId35"/>
+    <sheet name="A24.subsector_logit.csv" sheetId="54" r:id="rId36"/>
+    <sheet name="A24.subsector_shrwt.csv" sheetId="55" r:id="rId37"/>
+    <sheet name="A24.subsector_interp.csv" sheetId="56" r:id="rId38"/>
+    <sheet name="A24.globaltech_cost.csv" sheetId="57" r:id="rId39"/>
+    <sheet name="A24.globaltech_coef.csv" sheetId="58" r:id="rId40"/>
+    <sheet name="A24.globaltech_shrwt.csv" sheetId="59" r:id="rId41"/>
+    <sheet name="A25.sector.csv" sheetId="60" r:id="rId42"/>
+    <sheet name="A25.subsector_logit.csv" sheetId="61" r:id="rId43"/>
+    <sheet name="A25.globaltech_keyword.csv" sheetId="71" r:id="rId44"/>
+    <sheet name="A25.subsector_shrwt.csv" sheetId="62" r:id="rId45"/>
+    <sheet name="A25.globaltech_cost.csv" sheetId="64" r:id="rId46"/>
+    <sheet name="A25.globaltech_eff.csv" sheetId="65" r:id="rId47"/>
+    <sheet name="A25.globaltech_shrwt.csv" sheetId="66" r:id="rId48"/>
+    <sheet name="A25.globaltech_co2capture.csv" sheetId="67" r:id="rId49"/>
+    <sheet name="A26.sector.csv" sheetId="6" r:id="rId50"/>
+    <sheet name="A26.subsector_logit.csv" sheetId="32" r:id="rId51"/>
+    <sheet name="A26.subsector_shrwt.csv" sheetId="33" r:id="rId52"/>
+    <sheet name="A26.subsector_interp.csv" sheetId="51" r:id="rId53"/>
+    <sheet name="A26.globaltech_cost.csv" sheetId="31" r:id="rId54"/>
+    <sheet name="A26.globaltech_eff.csv" sheetId="7" r:id="rId55"/>
+    <sheet name="A26.globaltech_shrwt.csv" sheetId="52" r:id="rId56"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="208">
   <si>
     <t>technology</t>
   </si>
@@ -654,6 +657,48 @@
   <si>
     <t># Final energy delivery input-output efficiencies (global technologies)</t>
   </si>
+  <si>
+    <t># Primary energy handling keywords</t>
+  </si>
+  <si>
+    <t>primary.consumption</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>primary.renewable</t>
+  </si>
+  <si>
+    <t>average.fossil.efficiency</t>
+  </si>
+  <si>
+    <t>nuclear-elect</t>
+  </si>
+  <si>
+    <t>hydro-elect</t>
+  </si>
+  <si>
+    <t>wind-elect</t>
+  </si>
+  <si>
+    <t>solar-elect</t>
+  </si>
+  <si>
+    <t>geothermal-elect</t>
+  </si>
+  <si>
+    <t>nuclear-H2</t>
+  </si>
+  <si>
+    <t>wind-H2</t>
+  </si>
+  <si>
+    <t>solar-H2</t>
+  </si>
+  <si>
+    <t># Hydrogen technology keywords</t>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,6 +731,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -704,7 +756,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1675">
+  <cellStyleXfs count="1685">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2380,15 +2432,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1675">
+  <cellStyles count="1685">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3226,6 +3289,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4063,6 +4131,11 @@
     <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4625,6 +4698,120 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
@@ -4694,7 +4881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4811,7 +4998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -4957,7 +5144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -5136,7 +5323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5373,7 +5560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -5868,7 +6055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -6502,12 +6689,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7056,7 +7243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -7751,157 +7938,6 @@
       </c>
       <c r="I30">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1971</v>
-      </c>
-      <c r="E2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="E3">
-        <v>0.81799999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="E4">
-        <v>0.98099999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>0.26</v>
-      </c>
-      <c r="E5">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="E7">
-        <v>0.81799999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8">
-        <v>0.98</v>
-      </c>
-      <c r="E8">
-        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -8102,6 +8138,157 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1971</v>
+      </c>
+      <c r="E2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>0.26</v>
+      </c>
+      <c r="E5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>0.98</v>
+      </c>
+      <c r="E8">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
@@ -8202,7 +8389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8359,7 +8546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -8565,7 +8752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -8904,7 +9091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -8967,7 +9154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -9163,7 +9350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -10037,7 +10224,378 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
@@ -11279,2326 +11837,6 @@
       </c>
       <c r="O27">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2">
-        <v>1971</v>
-      </c>
-      <c r="H2">
-        <v>1990</v>
-      </c>
-      <c r="I2">
-        <v>2005</v>
-      </c>
-      <c r="J2">
-        <v>2020</v>
-      </c>
-      <c r="K2">
-        <v>2035</v>
-      </c>
-      <c r="L2">
-        <v>2050</v>
-      </c>
-      <c r="M2">
-        <v>2065</v>
-      </c>
-      <c r="N2">
-        <v>2080</v>
-      </c>
-      <c r="O2">
-        <v>2095</v>
-      </c>
-      <c r="P2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3">
-        <v>0.15</v>
-      </c>
-      <c r="F3">
-        <v>0.8</v>
-      </c>
-      <c r="G3">
-        <v>496</v>
-      </c>
-      <c r="H3">
-        <v>496</v>
-      </c>
-      <c r="I3">
-        <v>496</v>
-      </c>
-      <c r="J3">
-        <v>496</v>
-      </c>
-      <c r="K3">
-        <v>467</v>
-      </c>
-      <c r="L3">
-        <v>440</v>
-      </c>
-      <c r="M3">
-        <v>414</v>
-      </c>
-      <c r="N3">
-        <v>390</v>
-      </c>
-      <c r="O3">
-        <v>367</v>
-      </c>
-      <c r="P3">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4">
-        <v>0.15</v>
-      </c>
-      <c r="F4">
-        <v>0.8</v>
-      </c>
-      <c r="G4">
-        <v>575</v>
-      </c>
-      <c r="H4">
-        <v>575</v>
-      </c>
-      <c r="I4">
-        <v>575</v>
-      </c>
-      <c r="J4">
-        <v>575</v>
-      </c>
-      <c r="K4">
-        <v>517</v>
-      </c>
-      <c r="L4">
-        <v>437</v>
-      </c>
-      <c r="M4">
-        <v>433</v>
-      </c>
-      <c r="N4">
-        <v>410</v>
-      </c>
-      <c r="O4">
-        <v>402</v>
-      </c>
-      <c r="P4">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5">
-        <v>0.15</v>
-      </c>
-      <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
-        <v>758</v>
-      </c>
-      <c r="H5">
-        <v>758</v>
-      </c>
-      <c r="I5">
-        <v>758</v>
-      </c>
-      <c r="J5">
-        <v>758</v>
-      </c>
-      <c r="K5">
-        <v>666</v>
-      </c>
-      <c r="L5">
-        <v>558</v>
-      </c>
-      <c r="M5">
-        <v>550</v>
-      </c>
-      <c r="N5">
-        <v>522</v>
-      </c>
-      <c r="O5">
-        <v>512</v>
-      </c>
-      <c r="P5">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6">
-        <v>0.15</v>
-      </c>
-      <c r="F6">
-        <v>0.8</v>
-      </c>
-      <c r="G6">
-        <v>158</v>
-      </c>
-      <c r="H6">
-        <v>158</v>
-      </c>
-      <c r="I6">
-        <v>158</v>
-      </c>
-      <c r="J6">
-        <v>163</v>
-      </c>
-      <c r="K6">
-        <v>154</v>
-      </c>
-      <c r="L6">
-        <v>145</v>
-      </c>
-      <c r="M6">
-        <v>136</v>
-      </c>
-      <c r="N6">
-        <v>128</v>
-      </c>
-      <c r="O6">
-        <v>121</v>
-      </c>
-      <c r="P6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7">
-        <v>0.15</v>
-      </c>
-      <c r="F7">
-        <v>0.8</v>
-      </c>
-      <c r="G7">
-        <v>233</v>
-      </c>
-      <c r="H7">
-        <v>233</v>
-      </c>
-      <c r="I7">
-        <v>233</v>
-      </c>
-      <c r="J7">
-        <v>233</v>
-      </c>
-      <c r="K7">
-        <v>203</v>
-      </c>
-      <c r="L7">
-        <v>177</v>
-      </c>
-      <c r="M7">
-        <v>173</v>
-      </c>
-      <c r="N7">
-        <v>166</v>
-      </c>
-      <c r="O7">
-        <v>163</v>
-      </c>
-      <c r="P7">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8">
-        <v>0.15</v>
-      </c>
-      <c r="F8">
-        <v>0.8</v>
-      </c>
-      <c r="G8">
-        <v>362</v>
-      </c>
-      <c r="H8">
-        <v>362</v>
-      </c>
-      <c r="I8">
-        <v>362</v>
-      </c>
-      <c r="J8">
-        <v>362</v>
-      </c>
-      <c r="K8">
-        <v>313</v>
-      </c>
-      <c r="L8">
-        <v>273</v>
-      </c>
-      <c r="M8">
-        <v>265</v>
-      </c>
-      <c r="N8">
-        <v>254</v>
-      </c>
-      <c r="O8">
-        <v>250</v>
-      </c>
-      <c r="P8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9">
-        <v>0.15</v>
-      </c>
-      <c r="F9">
-        <v>0.8</v>
-      </c>
-      <c r="G9">
-        <v>158</v>
-      </c>
-      <c r="H9">
-        <v>158</v>
-      </c>
-      <c r="I9">
-        <v>158</v>
-      </c>
-      <c r="J9">
-        <v>163</v>
-      </c>
-      <c r="K9">
-        <v>154</v>
-      </c>
-      <c r="L9">
-        <v>145</v>
-      </c>
-      <c r="M9">
-        <v>136</v>
-      </c>
-      <c r="N9">
-        <v>128</v>
-      </c>
-      <c r="O9">
-        <v>121</v>
-      </c>
-      <c r="P9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10">
-        <v>0.15</v>
-      </c>
-      <c r="F10">
-        <v>0.8</v>
-      </c>
-      <c r="G10">
-        <v>517</v>
-      </c>
-      <c r="H10">
-        <v>517</v>
-      </c>
-      <c r="I10">
-        <v>517</v>
-      </c>
-      <c r="J10">
-        <v>517</v>
-      </c>
-      <c r="K10">
-        <v>451</v>
-      </c>
-      <c r="L10">
-        <v>393</v>
-      </c>
-      <c r="M10">
-        <v>384</v>
-      </c>
-      <c r="N10">
-        <v>368</v>
-      </c>
-      <c r="O10">
-        <v>362</v>
-      </c>
-      <c r="P10">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11">
-        <v>0.15</v>
-      </c>
-      <c r="F11">
-        <v>0.8</v>
-      </c>
-      <c r="G11">
-        <v>741</v>
-      </c>
-      <c r="H11">
-        <v>741</v>
-      </c>
-      <c r="I11">
-        <v>741</v>
-      </c>
-      <c r="J11">
-        <v>741</v>
-      </c>
-      <c r="K11">
-        <v>641</v>
-      </c>
-      <c r="L11">
-        <v>558</v>
-      </c>
-      <c r="M11">
-        <v>543</v>
-      </c>
-      <c r="N11">
-        <v>521</v>
-      </c>
-      <c r="O11">
-        <v>513</v>
-      </c>
-      <c r="P11">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12">
-        <v>0.15</v>
-      </c>
-      <c r="F12">
-        <v>0.8</v>
-      </c>
-      <c r="G12">
-        <v>511</v>
-      </c>
-      <c r="H12">
-        <v>511</v>
-      </c>
-      <c r="I12">
-        <v>511</v>
-      </c>
-      <c r="J12">
-        <v>511</v>
-      </c>
-      <c r="K12">
-        <v>481</v>
-      </c>
-      <c r="L12">
-        <v>453</v>
-      </c>
-      <c r="M12">
-        <v>427</v>
-      </c>
-      <c r="N12">
-        <v>402</v>
-      </c>
-      <c r="O12">
-        <v>378</v>
-      </c>
-      <c r="P12">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13">
-        <v>0.15</v>
-      </c>
-      <c r="F13">
-        <v>0.8</v>
-      </c>
-      <c r="G13">
-        <v>592</v>
-      </c>
-      <c r="H13">
-        <v>592</v>
-      </c>
-      <c r="I13">
-        <v>592</v>
-      </c>
-      <c r="J13">
-        <v>592</v>
-      </c>
-      <c r="K13">
-        <v>533</v>
-      </c>
-      <c r="L13">
-        <v>450</v>
-      </c>
-      <c r="M13">
-        <v>446</v>
-      </c>
-      <c r="N13">
-        <v>423</v>
-      </c>
-      <c r="O13">
-        <v>415</v>
-      </c>
-      <c r="P13">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14">
-        <v>0.15</v>
-      </c>
-      <c r="F14">
-        <v>0.8</v>
-      </c>
-      <c r="G14">
-        <v>763</v>
-      </c>
-      <c r="H14">
-        <v>763</v>
-      </c>
-      <c r="I14">
-        <v>763</v>
-      </c>
-      <c r="J14">
-        <v>763</v>
-      </c>
-      <c r="K14">
-        <v>673</v>
-      </c>
-      <c r="L14">
-        <v>565</v>
-      </c>
-      <c r="M14">
-        <v>558</v>
-      </c>
-      <c r="N14">
-        <v>529</v>
-      </c>
-      <c r="O14">
-        <v>520</v>
-      </c>
-      <c r="P14">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15">
-        <v>0.15</v>
-      </c>
-      <c r="F15">
-        <v>0.9</v>
-      </c>
-      <c r="G15">
-        <v>620</v>
-      </c>
-      <c r="H15">
-        <v>620</v>
-      </c>
-      <c r="I15">
-        <v>620</v>
-      </c>
-      <c r="J15">
-        <v>620</v>
-      </c>
-      <c r="K15">
-        <v>620</v>
-      </c>
-      <c r="L15">
-        <v>620</v>
-      </c>
-      <c r="M15">
-        <v>620</v>
-      </c>
-      <c r="N15">
-        <v>620</v>
-      </c>
-      <c r="O15">
-        <v>620</v>
-      </c>
-      <c r="P15">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16">
-        <v>0.15</v>
-      </c>
-      <c r="F16">
-        <v>0.9</v>
-      </c>
-      <c r="G16">
-        <v>815</v>
-      </c>
-      <c r="H16">
-        <v>815</v>
-      </c>
-      <c r="I16">
-        <v>815</v>
-      </c>
-      <c r="J16">
-        <v>676</v>
-      </c>
-      <c r="K16">
-        <v>664</v>
-      </c>
-      <c r="L16">
-        <v>654</v>
-      </c>
-      <c r="M16">
-        <v>645</v>
-      </c>
-      <c r="N16">
-        <v>636</v>
-      </c>
-      <c r="O16">
-        <v>626</v>
-      </c>
-      <c r="P16">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17">
-        <v>0.125</v>
-      </c>
-      <c r="F17">
-        <v>0.45</v>
-      </c>
-      <c r="G17">
-        <v>380</v>
-      </c>
-      <c r="H17">
-        <v>380</v>
-      </c>
-      <c r="I17">
-        <v>380</v>
-      </c>
-      <c r="J17">
-        <v>366</v>
-      </c>
-      <c r="K17">
-        <v>353</v>
-      </c>
-      <c r="L17">
-        <v>340</v>
-      </c>
-      <c r="M17">
-        <v>327</v>
-      </c>
-      <c r="N17">
-        <v>315</v>
-      </c>
-      <c r="O17">
-        <v>303</v>
-      </c>
-      <c r="P17">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18">
-        <v>0.125</v>
-      </c>
-      <c r="F18">
-        <v>0.45</v>
-      </c>
-      <c r="G18">
-        <v>916</v>
-      </c>
-      <c r="H18">
-        <v>916</v>
-      </c>
-      <c r="I18">
-        <v>916</v>
-      </c>
-      <c r="J18">
-        <v>827</v>
-      </c>
-      <c r="K18">
-        <v>764</v>
-      </c>
-      <c r="L18">
-        <v>721</v>
-      </c>
-      <c r="M18">
-        <v>695</v>
-      </c>
-      <c r="N18">
-        <v>669</v>
-      </c>
-      <c r="O18">
-        <v>645</v>
-      </c>
-      <c r="P18">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19">
-        <v>0.125</v>
-      </c>
-      <c r="F19">
-        <v>0.25</v>
-      </c>
-      <c r="G19">
-        <v>3016</v>
-      </c>
-      <c r="H19">
-        <v>3016</v>
-      </c>
-      <c r="I19">
-        <v>3016</v>
-      </c>
-      <c r="J19">
-        <v>1909</v>
-      </c>
-      <c r="K19">
-        <v>1305</v>
-      </c>
-      <c r="L19">
-        <v>963</v>
-      </c>
-      <c r="M19">
-        <v>767</v>
-      </c>
-      <c r="N19">
-        <v>659</v>
-      </c>
-      <c r="O19">
-        <v>610</v>
-      </c>
-      <c r="P19">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20">
-        <v>0.125</v>
-      </c>
-      <c r="F20">
-        <v>0.25</v>
-      </c>
-      <c r="G20">
-        <v>3552</v>
-      </c>
-      <c r="H20">
-        <v>3552</v>
-      </c>
-      <c r="I20">
-        <v>3552</v>
-      </c>
-      <c r="J20">
-        <v>2370</v>
-      </c>
-      <c r="K20">
-        <v>1716</v>
-      </c>
-      <c r="L20">
-        <v>1345</v>
-      </c>
-      <c r="M20">
-        <v>1135</v>
-      </c>
-      <c r="N20">
-        <v>1013</v>
-      </c>
-      <c r="O20">
-        <v>951</v>
-      </c>
-      <c r="P20">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21">
-        <v>0.125</v>
-      </c>
-      <c r="F21">
-        <v>0.31</v>
-      </c>
-      <c r="G21">
-        <v>1073</v>
-      </c>
-      <c r="H21">
-        <v>1073</v>
-      </c>
-      <c r="I21">
-        <v>1073</v>
-      </c>
-      <c r="J21">
-        <v>995</v>
-      </c>
-      <c r="K21">
-        <v>923</v>
-      </c>
-      <c r="L21">
-        <v>856</v>
-      </c>
-      <c r="M21">
-        <v>794</v>
-      </c>
-      <c r="N21">
-        <v>737</v>
-      </c>
-      <c r="O21">
-        <v>683</v>
-      </c>
-      <c r="P21">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22">
-        <v>0.125</v>
-      </c>
-      <c r="F22">
-        <v>0.73</v>
-      </c>
-      <c r="G22">
-        <v>2146</v>
-      </c>
-      <c r="H22">
-        <v>2146</v>
-      </c>
-      <c r="I22">
-        <v>2146</v>
-      </c>
-      <c r="J22">
-        <v>1991</v>
-      </c>
-      <c r="K22">
-        <v>1846</v>
-      </c>
-      <c r="L22">
-        <v>1713</v>
-      </c>
-      <c r="M22">
-        <v>1589</v>
-      </c>
-      <c r="N22">
-        <v>1474</v>
-      </c>
-      <c r="O22">
-        <v>1367</v>
-      </c>
-      <c r="P22">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23">
-        <v>0.125</v>
-      </c>
-      <c r="F23">
-        <v>0.9</v>
-      </c>
-      <c r="G23" s="2">
-        <v>521</v>
-      </c>
-      <c r="H23" s="2">
-        <v>521</v>
-      </c>
-      <c r="I23" s="2">
-        <v>521</v>
-      </c>
-      <c r="J23" s="2">
-        <v>485</v>
-      </c>
-      <c r="K23" s="2">
-        <v>448</v>
-      </c>
-      <c r="L23" s="2">
-        <v>421</v>
-      </c>
-      <c r="M23" s="2">
-        <v>406</v>
-      </c>
-      <c r="N23" s="2">
-        <v>391</v>
-      </c>
-      <c r="O23" s="2">
-        <v>376</v>
-      </c>
-      <c r="P23" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24">
-        <v>0.1</v>
-      </c>
-      <c r="F24">
-        <v>0.25</v>
-      </c>
-      <c r="G24">
-        <v>4403</v>
-      </c>
-      <c r="H24">
-        <v>4403</v>
-      </c>
-      <c r="I24">
-        <v>4403</v>
-      </c>
-      <c r="J24">
-        <v>2798</v>
-      </c>
-      <c r="K24">
-        <v>1946</v>
-      </c>
-      <c r="L24">
-        <v>1477</v>
-      </c>
-      <c r="M24">
-        <v>1192</v>
-      </c>
-      <c r="N24">
-        <v>1091</v>
-      </c>
-      <c r="O24">
-        <v>1024</v>
-      </c>
-      <c r="P24">
-        <v>1024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="6.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2">
-        <v>1971</v>
-      </c>
-      <c r="G2">
-        <v>1990</v>
-      </c>
-      <c r="H2">
-        <v>2005</v>
-      </c>
-      <c r="I2">
-        <v>2020</v>
-      </c>
-      <c r="J2">
-        <v>2035</v>
-      </c>
-      <c r="K2">
-        <v>2050</v>
-      </c>
-      <c r="L2">
-        <v>2065</v>
-      </c>
-      <c r="M2">
-        <v>2080</v>
-      </c>
-      <c r="N2">
-        <v>2095</v>
-      </c>
-      <c r="O2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8.83</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8.83</v>
-      </c>
-      <c r="H3" s="3">
-        <v>8.83</v>
-      </c>
-      <c r="I3" s="3">
-        <v>8.83</v>
-      </c>
-      <c r="J3" s="3">
-        <v>8.31</v>
-      </c>
-      <c r="K3" s="3">
-        <v>7.83</v>
-      </c>
-      <c r="L3" s="3">
-        <v>7.37</v>
-      </c>
-      <c r="M3" s="3">
-        <v>6.94</v>
-      </c>
-      <c r="N3" s="3">
-        <v>6.54</v>
-      </c>
-      <c r="O3" s="3">
-        <f>N3</f>
-        <v>6.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4">
-        <v>0.8</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="G4" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="I4" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="J4" s="3">
-        <v>11.57</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10.42</v>
-      </c>
-      <c r="L4" s="3">
-        <v>10.36</v>
-      </c>
-      <c r="M4" s="3">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="N4" s="3">
-        <v>9.92</v>
-      </c>
-      <c r="O4" s="3">
-        <f t="shared" ref="O4:O22" si="0">N4</f>
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5">
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>14.22</v>
-      </c>
-      <c r="G5" s="3">
-        <v>14.22</v>
-      </c>
-      <c r="H5" s="3">
-        <v>14.22</v>
-      </c>
-      <c r="I5" s="3">
-        <v>14.22</v>
-      </c>
-      <c r="J5" s="3">
-        <v>13.14</v>
-      </c>
-      <c r="K5" s="3">
-        <v>11.79</v>
-      </c>
-      <c r="L5" s="3">
-        <v>11.69</v>
-      </c>
-      <c r="M5" s="3">
-        <v>11.32</v>
-      </c>
-      <c r="N5" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="J6" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3.33</v>
-      </c>
-      <c r="L6" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="0"/>
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7">
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.88</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3.88</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3.88</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3.88</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3.54</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3.26</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3.21</v>
-      </c>
-      <c r="M7" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="N7" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="0"/>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8">
-        <v>0.8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3.56</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3.41</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3.38</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="0"/>
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3.33</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2.78</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="0"/>
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>11.16</v>
-      </c>
-      <c r="G10" s="3">
-        <v>11.16</v>
-      </c>
-      <c r="H10" s="3">
-        <v>11.16</v>
-      </c>
-      <c r="I10" s="3">
-        <v>11.16</v>
-      </c>
-      <c r="J10" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="L10" s="3">
-        <v>9.24</v>
-      </c>
-      <c r="M10" s="3">
-        <v>9.01</v>
-      </c>
-      <c r="N10" s="3">
-        <v>8.93</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="0"/>
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11">
-        <v>0.8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12.02</v>
-      </c>
-      <c r="G11" s="3">
-        <v>12.02</v>
-      </c>
-      <c r="H11" s="3">
-        <v>12.02</v>
-      </c>
-      <c r="I11" s="3">
-        <v>12.02</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10.93</v>
-      </c>
-      <c r="K11" s="3">
-        <v>10.01</v>
-      </c>
-      <c r="L11" s="3">
-        <v>9.86</v>
-      </c>
-      <c r="M11" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="N11" s="3">
-        <v>9.51</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" si="0"/>
-        <v>9.51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9.09</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9.09</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9.09</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9.09</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8.56</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8.06</v>
-      </c>
-      <c r="L12" s="3">
-        <v>7.59</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7.15</v>
-      </c>
-      <c r="N12" s="3">
-        <v>6.73</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="0"/>
-        <v>6.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13">
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>12.77</v>
-      </c>
-      <c r="G13" s="3">
-        <v>12.77</v>
-      </c>
-      <c r="H13" s="3">
-        <v>12.77</v>
-      </c>
-      <c r="I13" s="3">
-        <v>12.77</v>
-      </c>
-      <c r="J13" s="3">
-        <v>11.91</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10.73</v>
-      </c>
-      <c r="L13" s="3">
-        <v>10.67</v>
-      </c>
-      <c r="M13" s="3">
-        <v>10.33</v>
-      </c>
-      <c r="N13" s="3">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" si="0"/>
-        <v>10.220000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14">
-        <v>0.8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>14.33</v>
-      </c>
-      <c r="G14" s="3">
-        <v>14.33</v>
-      </c>
-      <c r="H14" s="3">
-        <v>14.33</v>
-      </c>
-      <c r="I14" s="3">
-        <v>14.33</v>
-      </c>
-      <c r="J14" s="3">
-        <v>13.26</v>
-      </c>
-      <c r="K14" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="L14" s="3">
-        <v>11.81</v>
-      </c>
-      <c r="M14" s="3">
-        <v>11.44</v>
-      </c>
-      <c r="N14" s="3">
-        <v>11.31</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="0"/>
-        <v>11.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15">
-        <v>0.9</v>
-      </c>
-      <c r="F15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="G15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="H15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="I15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="J15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="K15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="L15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="M15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="N15" s="3">
-        <v>22.02</v>
-      </c>
-      <c r="O15" s="3">
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16">
-        <v>0.9</v>
-      </c>
-      <c r="F16" s="3">
-        <v>21.77</v>
-      </c>
-      <c r="G16" s="3">
-        <v>21.77</v>
-      </c>
-      <c r="H16" s="3">
-        <v>21.77</v>
-      </c>
-      <c r="I16" s="3">
-        <v>21.77</v>
-      </c>
-      <c r="J16" s="3">
-        <v>21.41</v>
-      </c>
-      <c r="K16" s="3">
-        <v>21.09</v>
-      </c>
-      <c r="L16" s="3">
-        <v>20.77</v>
-      </c>
-      <c r="M16" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="N16" s="3">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="0"/>
-        <v>20.190000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17">
-        <v>0.45</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3.61</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3.35</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3.22</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="0"/>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18">
-        <v>0.45</v>
-      </c>
-      <c r="F18" s="3">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="G18" s="3">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="I18" s="3">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="J18" s="3">
-        <v>8.49</v>
-      </c>
-      <c r="K18" s="3">
-        <v>8.36</v>
-      </c>
-      <c r="L18" s="3">
-        <v>8.23</v>
-      </c>
-      <c r="M18" s="3">
-        <v>8.11</v>
-      </c>
-      <c r="N18" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="0"/>
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19">
-        <v>0.25</v>
-      </c>
-      <c r="F19" s="3">
-        <v>8.93</v>
-      </c>
-      <c r="G19" s="3">
-        <v>8.93</v>
-      </c>
-      <c r="H19" s="3">
-        <v>8.93</v>
-      </c>
-      <c r="I19" s="3">
-        <v>8.93</v>
-      </c>
-      <c r="J19" s="3">
-        <v>7.14</v>
-      </c>
-      <c r="K19" s="3">
-        <v>6.43</v>
-      </c>
-      <c r="L19" s="3">
-        <v>5.71</v>
-      </c>
-      <c r="M19" s="3">
-        <v>5.36</v>
-      </c>
-      <c r="N19" s="3">
-        <v>5.36</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="0"/>
-        <v>5.36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20">
-        <v>0.25</v>
-      </c>
-      <c r="F20" s="3">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="G20" s="3">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="H20" s="3">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="I20" s="3">
-        <v>16.23</v>
-      </c>
-      <c r="J20" s="3">
-        <v>13.66</v>
-      </c>
-      <c r="K20" s="3">
-        <v>12.48</v>
-      </c>
-      <c r="L20" s="3">
-        <v>11.54</v>
-      </c>
-      <c r="M20" s="3">
-        <v>10.97</v>
-      </c>
-      <c r="N20" s="3">
-        <v>10.76</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="0"/>
-        <v>10.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21">
-        <v>0.31</v>
-      </c>
-      <c r="F21" s="3">
-        <v>16.62</v>
-      </c>
-      <c r="G21" s="3">
-        <v>16.62</v>
-      </c>
-      <c r="H21" s="3">
-        <v>16.62</v>
-      </c>
-      <c r="I21" s="3">
-        <v>15.42</v>
-      </c>
-      <c r="J21" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="K21" s="3">
-        <v>13.26</v>
-      </c>
-      <c r="L21" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="M21" s="3">
-        <v>11.41</v>
-      </c>
-      <c r="N21" s="3">
-        <v>10.59</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="0"/>
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22">
-        <v>0.73</v>
-      </c>
-      <c r="F22" s="3">
-        <v>16.62</v>
-      </c>
-      <c r="G22" s="3">
-        <v>16.62</v>
-      </c>
-      <c r="H22" s="3">
-        <v>16.62</v>
-      </c>
-      <c r="I22" s="3">
-        <v>15.42</v>
-      </c>
-      <c r="J22" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>13.26</v>
-      </c>
-      <c r="L22" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>11.41</v>
-      </c>
-      <c r="N22" s="3">
-        <v>10.59</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="0"/>
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23">
-        <v>0.9</v>
-      </c>
-      <c r="F23" s="3">
-        <v>23.54</v>
-      </c>
-      <c r="G23" s="3">
-        <v>23.54</v>
-      </c>
-      <c r="H23" s="3">
-        <v>23.54</v>
-      </c>
-      <c r="I23" s="3">
-        <v>21.91</v>
-      </c>
-      <c r="J23" s="3">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="K23" s="3">
-        <v>19.02</v>
-      </c>
-      <c r="L23" s="3">
-        <v>18.34</v>
-      </c>
-      <c r="M23" s="3">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="N23" s="3">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="O23" s="3">
-        <v>16.989999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24">
-        <v>0.25</v>
-      </c>
-      <c r="F24" s="3">
-        <v>46.77</v>
-      </c>
-      <c r="G24" s="3">
-        <v>46.77</v>
-      </c>
-      <c r="H24" s="3">
-        <v>46.77</v>
-      </c>
-      <c r="I24" s="3">
-        <v>22.49</v>
-      </c>
-      <c r="J24" s="3">
-        <v>17.3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>12.48</v>
-      </c>
-      <c r="L24" s="3">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
-        <v>7.69</v>
-      </c>
-      <c r="N24" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -13837,6 +12075,2326 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2">
+        <v>1971</v>
+      </c>
+      <c r="H2">
+        <v>1990</v>
+      </c>
+      <c r="I2">
+        <v>2005</v>
+      </c>
+      <c r="J2">
+        <v>2020</v>
+      </c>
+      <c r="K2">
+        <v>2035</v>
+      </c>
+      <c r="L2">
+        <v>2050</v>
+      </c>
+      <c r="M2">
+        <v>2065</v>
+      </c>
+      <c r="N2">
+        <v>2080</v>
+      </c>
+      <c r="O2">
+        <v>2095</v>
+      </c>
+      <c r="P2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3">
+        <v>0.15</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>496</v>
+      </c>
+      <c r="H3">
+        <v>496</v>
+      </c>
+      <c r="I3">
+        <v>496</v>
+      </c>
+      <c r="J3">
+        <v>496</v>
+      </c>
+      <c r="K3">
+        <v>467</v>
+      </c>
+      <c r="L3">
+        <v>440</v>
+      </c>
+      <c r="M3">
+        <v>414</v>
+      </c>
+      <c r="N3">
+        <v>390</v>
+      </c>
+      <c r="O3">
+        <v>367</v>
+      </c>
+      <c r="P3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>575</v>
+      </c>
+      <c r="H4">
+        <v>575</v>
+      </c>
+      <c r="I4">
+        <v>575</v>
+      </c>
+      <c r="J4">
+        <v>575</v>
+      </c>
+      <c r="K4">
+        <v>517</v>
+      </c>
+      <c r="L4">
+        <v>437</v>
+      </c>
+      <c r="M4">
+        <v>433</v>
+      </c>
+      <c r="N4">
+        <v>410</v>
+      </c>
+      <c r="O4">
+        <v>402</v>
+      </c>
+      <c r="P4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5">
+        <v>0.15</v>
+      </c>
+      <c r="F5">
+        <v>0.8</v>
+      </c>
+      <c r="G5">
+        <v>758</v>
+      </c>
+      <c r="H5">
+        <v>758</v>
+      </c>
+      <c r="I5">
+        <v>758</v>
+      </c>
+      <c r="J5">
+        <v>758</v>
+      </c>
+      <c r="K5">
+        <v>666</v>
+      </c>
+      <c r="L5">
+        <v>558</v>
+      </c>
+      <c r="M5">
+        <v>550</v>
+      </c>
+      <c r="N5">
+        <v>522</v>
+      </c>
+      <c r="O5">
+        <v>512</v>
+      </c>
+      <c r="P5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6">
+        <v>0.15</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>158</v>
+      </c>
+      <c r="H6">
+        <v>158</v>
+      </c>
+      <c r="I6">
+        <v>158</v>
+      </c>
+      <c r="J6">
+        <v>163</v>
+      </c>
+      <c r="K6">
+        <v>154</v>
+      </c>
+      <c r="L6">
+        <v>145</v>
+      </c>
+      <c r="M6">
+        <v>136</v>
+      </c>
+      <c r="N6">
+        <v>128</v>
+      </c>
+      <c r="O6">
+        <v>121</v>
+      </c>
+      <c r="P6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7">
+        <v>0.15</v>
+      </c>
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>233</v>
+      </c>
+      <c r="H7">
+        <v>233</v>
+      </c>
+      <c r="I7">
+        <v>233</v>
+      </c>
+      <c r="J7">
+        <v>233</v>
+      </c>
+      <c r="K7">
+        <v>203</v>
+      </c>
+      <c r="L7">
+        <v>177</v>
+      </c>
+      <c r="M7">
+        <v>173</v>
+      </c>
+      <c r="N7">
+        <v>166</v>
+      </c>
+      <c r="O7">
+        <v>163</v>
+      </c>
+      <c r="P7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8">
+        <v>0.15</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>362</v>
+      </c>
+      <c r="H8">
+        <v>362</v>
+      </c>
+      <c r="I8">
+        <v>362</v>
+      </c>
+      <c r="J8">
+        <v>362</v>
+      </c>
+      <c r="K8">
+        <v>313</v>
+      </c>
+      <c r="L8">
+        <v>273</v>
+      </c>
+      <c r="M8">
+        <v>265</v>
+      </c>
+      <c r="N8">
+        <v>254</v>
+      </c>
+      <c r="O8">
+        <v>250</v>
+      </c>
+      <c r="P8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9">
+        <v>0.15</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>158</v>
+      </c>
+      <c r="H9">
+        <v>158</v>
+      </c>
+      <c r="I9">
+        <v>158</v>
+      </c>
+      <c r="J9">
+        <v>163</v>
+      </c>
+      <c r="K9">
+        <v>154</v>
+      </c>
+      <c r="L9">
+        <v>145</v>
+      </c>
+      <c r="M9">
+        <v>136</v>
+      </c>
+      <c r="N9">
+        <v>128</v>
+      </c>
+      <c r="O9">
+        <v>121</v>
+      </c>
+      <c r="P9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10">
+        <v>0.15</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>517</v>
+      </c>
+      <c r="H10">
+        <v>517</v>
+      </c>
+      <c r="I10">
+        <v>517</v>
+      </c>
+      <c r="J10">
+        <v>517</v>
+      </c>
+      <c r="K10">
+        <v>451</v>
+      </c>
+      <c r="L10">
+        <v>393</v>
+      </c>
+      <c r="M10">
+        <v>384</v>
+      </c>
+      <c r="N10">
+        <v>368</v>
+      </c>
+      <c r="O10">
+        <v>362</v>
+      </c>
+      <c r="P10">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11">
+        <v>0.15</v>
+      </c>
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <v>741</v>
+      </c>
+      <c r="H11">
+        <v>741</v>
+      </c>
+      <c r="I11">
+        <v>741</v>
+      </c>
+      <c r="J11">
+        <v>741</v>
+      </c>
+      <c r="K11">
+        <v>641</v>
+      </c>
+      <c r="L11">
+        <v>558</v>
+      </c>
+      <c r="M11">
+        <v>543</v>
+      </c>
+      <c r="N11">
+        <v>521</v>
+      </c>
+      <c r="O11">
+        <v>513</v>
+      </c>
+      <c r="P11">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12">
+        <v>0.15</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>511</v>
+      </c>
+      <c r="H12">
+        <v>511</v>
+      </c>
+      <c r="I12">
+        <v>511</v>
+      </c>
+      <c r="J12">
+        <v>511</v>
+      </c>
+      <c r="K12">
+        <v>481</v>
+      </c>
+      <c r="L12">
+        <v>453</v>
+      </c>
+      <c r="M12">
+        <v>427</v>
+      </c>
+      <c r="N12">
+        <v>402</v>
+      </c>
+      <c r="O12">
+        <v>378</v>
+      </c>
+      <c r="P12">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13">
+        <v>0.15</v>
+      </c>
+      <c r="F13">
+        <v>0.8</v>
+      </c>
+      <c r="G13">
+        <v>592</v>
+      </c>
+      <c r="H13">
+        <v>592</v>
+      </c>
+      <c r="I13">
+        <v>592</v>
+      </c>
+      <c r="J13">
+        <v>592</v>
+      </c>
+      <c r="K13">
+        <v>533</v>
+      </c>
+      <c r="L13">
+        <v>450</v>
+      </c>
+      <c r="M13">
+        <v>446</v>
+      </c>
+      <c r="N13">
+        <v>423</v>
+      </c>
+      <c r="O13">
+        <v>415</v>
+      </c>
+      <c r="P13">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14">
+        <v>0.15</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>763</v>
+      </c>
+      <c r="H14">
+        <v>763</v>
+      </c>
+      <c r="I14">
+        <v>763</v>
+      </c>
+      <c r="J14">
+        <v>763</v>
+      </c>
+      <c r="K14">
+        <v>673</v>
+      </c>
+      <c r="L14">
+        <v>565</v>
+      </c>
+      <c r="M14">
+        <v>558</v>
+      </c>
+      <c r="N14">
+        <v>529</v>
+      </c>
+      <c r="O14">
+        <v>520</v>
+      </c>
+      <c r="P14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15">
+        <v>0.15</v>
+      </c>
+      <c r="F15">
+        <v>0.9</v>
+      </c>
+      <c r="G15">
+        <v>620</v>
+      </c>
+      <c r="H15">
+        <v>620</v>
+      </c>
+      <c r="I15">
+        <v>620</v>
+      </c>
+      <c r="J15">
+        <v>620</v>
+      </c>
+      <c r="K15">
+        <v>620</v>
+      </c>
+      <c r="L15">
+        <v>620</v>
+      </c>
+      <c r="M15">
+        <v>620</v>
+      </c>
+      <c r="N15">
+        <v>620</v>
+      </c>
+      <c r="O15">
+        <v>620</v>
+      </c>
+      <c r="P15">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16">
+        <v>0.15</v>
+      </c>
+      <c r="F16">
+        <v>0.9</v>
+      </c>
+      <c r="G16">
+        <v>815</v>
+      </c>
+      <c r="H16">
+        <v>815</v>
+      </c>
+      <c r="I16">
+        <v>815</v>
+      </c>
+      <c r="J16">
+        <v>676</v>
+      </c>
+      <c r="K16">
+        <v>664</v>
+      </c>
+      <c r="L16">
+        <v>654</v>
+      </c>
+      <c r="M16">
+        <v>645</v>
+      </c>
+      <c r="N16">
+        <v>636</v>
+      </c>
+      <c r="O16">
+        <v>626</v>
+      </c>
+      <c r="P16">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17">
+        <v>0.125</v>
+      </c>
+      <c r="F17">
+        <v>0.45</v>
+      </c>
+      <c r="G17">
+        <v>380</v>
+      </c>
+      <c r="H17">
+        <v>380</v>
+      </c>
+      <c r="I17">
+        <v>380</v>
+      </c>
+      <c r="J17">
+        <v>366</v>
+      </c>
+      <c r="K17">
+        <v>353</v>
+      </c>
+      <c r="L17">
+        <v>340</v>
+      </c>
+      <c r="M17">
+        <v>327</v>
+      </c>
+      <c r="N17">
+        <v>315</v>
+      </c>
+      <c r="O17">
+        <v>303</v>
+      </c>
+      <c r="P17">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18">
+        <v>0.125</v>
+      </c>
+      <c r="F18">
+        <v>0.45</v>
+      </c>
+      <c r="G18">
+        <v>916</v>
+      </c>
+      <c r="H18">
+        <v>916</v>
+      </c>
+      <c r="I18">
+        <v>916</v>
+      </c>
+      <c r="J18">
+        <v>827</v>
+      </c>
+      <c r="K18">
+        <v>764</v>
+      </c>
+      <c r="L18">
+        <v>721</v>
+      </c>
+      <c r="M18">
+        <v>695</v>
+      </c>
+      <c r="N18">
+        <v>669</v>
+      </c>
+      <c r="O18">
+        <v>645</v>
+      </c>
+      <c r="P18">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19">
+        <v>0.125</v>
+      </c>
+      <c r="F19">
+        <v>0.25</v>
+      </c>
+      <c r="G19">
+        <v>3016</v>
+      </c>
+      <c r="H19">
+        <v>3016</v>
+      </c>
+      <c r="I19">
+        <v>3016</v>
+      </c>
+      <c r="J19">
+        <v>1909</v>
+      </c>
+      <c r="K19">
+        <v>1305</v>
+      </c>
+      <c r="L19">
+        <v>963</v>
+      </c>
+      <c r="M19">
+        <v>767</v>
+      </c>
+      <c r="N19">
+        <v>659</v>
+      </c>
+      <c r="O19">
+        <v>610</v>
+      </c>
+      <c r="P19">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20">
+        <v>0.125</v>
+      </c>
+      <c r="F20">
+        <v>0.25</v>
+      </c>
+      <c r="G20">
+        <v>3552</v>
+      </c>
+      <c r="H20">
+        <v>3552</v>
+      </c>
+      <c r="I20">
+        <v>3552</v>
+      </c>
+      <c r="J20">
+        <v>2370</v>
+      </c>
+      <c r="K20">
+        <v>1716</v>
+      </c>
+      <c r="L20">
+        <v>1345</v>
+      </c>
+      <c r="M20">
+        <v>1135</v>
+      </c>
+      <c r="N20">
+        <v>1013</v>
+      </c>
+      <c r="O20">
+        <v>951</v>
+      </c>
+      <c r="P20">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>0.125</v>
+      </c>
+      <c r="F21">
+        <v>0.31</v>
+      </c>
+      <c r="G21">
+        <v>1073</v>
+      </c>
+      <c r="H21">
+        <v>1073</v>
+      </c>
+      <c r="I21">
+        <v>1073</v>
+      </c>
+      <c r="J21">
+        <v>995</v>
+      </c>
+      <c r="K21">
+        <v>923</v>
+      </c>
+      <c r="L21">
+        <v>856</v>
+      </c>
+      <c r="M21">
+        <v>794</v>
+      </c>
+      <c r="N21">
+        <v>737</v>
+      </c>
+      <c r="O21">
+        <v>683</v>
+      </c>
+      <c r="P21">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22">
+        <v>0.125</v>
+      </c>
+      <c r="F22">
+        <v>0.73</v>
+      </c>
+      <c r="G22">
+        <v>2146</v>
+      </c>
+      <c r="H22">
+        <v>2146</v>
+      </c>
+      <c r="I22">
+        <v>2146</v>
+      </c>
+      <c r="J22">
+        <v>1991</v>
+      </c>
+      <c r="K22">
+        <v>1846</v>
+      </c>
+      <c r="L22">
+        <v>1713</v>
+      </c>
+      <c r="M22">
+        <v>1589</v>
+      </c>
+      <c r="N22">
+        <v>1474</v>
+      </c>
+      <c r="O22">
+        <v>1367</v>
+      </c>
+      <c r="P22">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23">
+        <v>0.125</v>
+      </c>
+      <c r="F23">
+        <v>0.9</v>
+      </c>
+      <c r="G23" s="2">
+        <v>521</v>
+      </c>
+      <c r="H23" s="2">
+        <v>521</v>
+      </c>
+      <c r="I23" s="2">
+        <v>521</v>
+      </c>
+      <c r="J23" s="2">
+        <v>485</v>
+      </c>
+      <c r="K23" s="2">
+        <v>448</v>
+      </c>
+      <c r="L23" s="2">
+        <v>421</v>
+      </c>
+      <c r="M23" s="2">
+        <v>406</v>
+      </c>
+      <c r="N23" s="2">
+        <v>391</v>
+      </c>
+      <c r="O23" s="2">
+        <v>376</v>
+      </c>
+      <c r="P23" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <v>0.25</v>
+      </c>
+      <c r="G24">
+        <v>4403</v>
+      </c>
+      <c r="H24">
+        <v>4403</v>
+      </c>
+      <c r="I24">
+        <v>4403</v>
+      </c>
+      <c r="J24">
+        <v>2798</v>
+      </c>
+      <c r="K24">
+        <v>1946</v>
+      </c>
+      <c r="L24">
+        <v>1477</v>
+      </c>
+      <c r="M24">
+        <v>1192</v>
+      </c>
+      <c r="N24">
+        <v>1091</v>
+      </c>
+      <c r="O24">
+        <v>1024</v>
+      </c>
+      <c r="P24">
+        <v>1024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2">
+        <v>1971</v>
+      </c>
+      <c r="G2">
+        <v>1990</v>
+      </c>
+      <c r="H2">
+        <v>2005</v>
+      </c>
+      <c r="I2">
+        <v>2020</v>
+      </c>
+      <c r="J2">
+        <v>2035</v>
+      </c>
+      <c r="K2">
+        <v>2050</v>
+      </c>
+      <c r="L2">
+        <v>2065</v>
+      </c>
+      <c r="M2">
+        <v>2080</v>
+      </c>
+      <c r="N2">
+        <v>2095</v>
+      </c>
+      <c r="O2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8.83</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8.83</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8.83</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8.83</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7.83</v>
+      </c>
+      <c r="L3" s="3">
+        <v>7.37</v>
+      </c>
+      <c r="M3" s="3">
+        <v>6.94</v>
+      </c>
+      <c r="N3" s="3">
+        <v>6.54</v>
+      </c>
+      <c r="O3" s="3">
+        <f>N3</f>
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>11.57</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10.42</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10.36</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>9.92</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O22" si="0">N4</f>
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14.22</v>
+      </c>
+      <c r="G5" s="3">
+        <v>14.22</v>
+      </c>
+      <c r="H5" s="3">
+        <v>14.22</v>
+      </c>
+      <c r="I5" s="3">
+        <v>14.22</v>
+      </c>
+      <c r="J5" s="3">
+        <v>13.14</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11.79</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11.69</v>
+      </c>
+      <c r="M5" s="3">
+        <v>11.32</v>
+      </c>
+      <c r="N5" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.54</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3.21</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="H10" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K10" s="3">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9.24</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9.01</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8.93</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12.02</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12.02</v>
+      </c>
+      <c r="H11" s="3">
+        <v>12.02</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12.02</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10.93</v>
+      </c>
+      <c r="K11" s="3">
+        <v>10.01</v>
+      </c>
+      <c r="L11" s="3">
+        <v>9.86</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>9.51</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8.56</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8.06</v>
+      </c>
+      <c r="L12" s="3">
+        <v>7.59</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7.15</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6.73</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>12.77</v>
+      </c>
+      <c r="G13" s="3">
+        <v>12.77</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12.77</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12.77</v>
+      </c>
+      <c r="J13" s="3">
+        <v>11.91</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10.73</v>
+      </c>
+      <c r="L13" s="3">
+        <v>10.67</v>
+      </c>
+      <c r="M13" s="3">
+        <v>10.33</v>
+      </c>
+      <c r="N13" s="3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="G14" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="H14" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="I14" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="J14" s="3">
+        <v>13.26</v>
+      </c>
+      <c r="K14" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="L14" s="3">
+        <v>11.81</v>
+      </c>
+      <c r="M14" s="3">
+        <v>11.44</v>
+      </c>
+      <c r="N14" s="3">
+        <v>11.31</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="G15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="H15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="K15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="L15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="M15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="N15" s="3">
+        <v>22.02</v>
+      </c>
+      <c r="O15" s="3">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="3">
+        <v>21.77</v>
+      </c>
+      <c r="G16" s="3">
+        <v>21.77</v>
+      </c>
+      <c r="H16" s="3">
+        <v>21.77</v>
+      </c>
+      <c r="I16" s="3">
+        <v>21.77</v>
+      </c>
+      <c r="J16" s="3">
+        <v>21.41</v>
+      </c>
+      <c r="K16" s="3">
+        <v>21.09</v>
+      </c>
+      <c r="L16" s="3">
+        <v>20.77</v>
+      </c>
+      <c r="M16" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17">
+        <v>0.45</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3.22</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18">
+        <v>0.45</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8.49</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8.36</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8.23</v>
+      </c>
+      <c r="M18" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="N18" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="3">
+        <v>8.93</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8.93</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8.93</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8.93</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="K19" s="3">
+        <v>6.43</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5.71</v>
+      </c>
+      <c r="M19" s="3">
+        <v>5.36</v>
+      </c>
+      <c r="N19" s="3">
+        <v>5.36</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="0"/>
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G20" s="3">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="H20" s="3">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="I20" s="3">
+        <v>16.23</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.66</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12.48</v>
+      </c>
+      <c r="L20" s="3">
+        <v>11.54</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10.97</v>
+      </c>
+      <c r="N20" s="3">
+        <v>10.76</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="0"/>
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21">
+        <v>0.31</v>
+      </c>
+      <c r="F21" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="G21" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="H21" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="I21" s="3">
+        <v>15.42</v>
+      </c>
+      <c r="J21" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>13.26</v>
+      </c>
+      <c r="L21" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>11.41</v>
+      </c>
+      <c r="N21" s="3">
+        <v>10.59</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="0"/>
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22">
+        <v>0.73</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="G22" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="H22" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="I22" s="3">
+        <v>15.42</v>
+      </c>
+      <c r="J22" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>13.26</v>
+      </c>
+      <c r="L22" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>11.41</v>
+      </c>
+      <c r="N22" s="3">
+        <v>10.59</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="0"/>
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="3">
+        <v>23.54</v>
+      </c>
+      <c r="G23" s="3">
+        <v>23.54</v>
+      </c>
+      <c r="H23" s="3">
+        <v>23.54</v>
+      </c>
+      <c r="I23" s="3">
+        <v>21.91</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="K23" s="3">
+        <v>19.02</v>
+      </c>
+      <c r="L23" s="3">
+        <v>18.34</v>
+      </c>
+      <c r="M23" s="3">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="N23" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="O23" s="3">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24">
+        <v>0.25</v>
+      </c>
+      <c r="F24" s="3">
+        <v>46.77</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46.77</v>
+      </c>
+      <c r="H24" s="3">
+        <v>46.77</v>
+      </c>
+      <c r="I24" s="3">
+        <v>22.49</v>
+      </c>
+      <c r="J24" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>12.48</v>
+      </c>
+      <c r="L24" s="3">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>7.69</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
@@ -14632,7 +15190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -15335,7 +15893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -15512,7 +16070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -15579,7 +16137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -15670,7 +16228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -15779,7 +16337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -15918,7 +16476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -16142,254 +16700,6 @@
       </c>
       <c r="M6" s="1">
         <v>1.5764652356959723</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1971</v>
-      </c>
-      <c r="F2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1971</v>
-      </c>
-      <c r="E2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16699,6 +17009,254 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1971</v>
+      </c>
+      <c r="F2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1971</v>
+      </c>
+      <c r="E2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
@@ -16815,7 +17373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -16994,7 +17552,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -17382,7 +18115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -18025,7 +18758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -18666,12 +19399,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A8" activeCellId="2" sqref="A4:C4 A6:C6 A8:C8"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18969,7 +19702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -19104,702 +19837,6 @@
       </c>
       <c r="I5">
         <v>0.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15">
-        <v>-6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20087,6 +20124,702 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
@@ -20362,7 +21095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -20758,7 +21491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -21117,12 +21850,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21863,7 +22596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32140" windowHeight="21340" tabRatio="684" firstSheet="43" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="684" firstSheet="26" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="A21.sector.csv" sheetId="5" r:id="rId1"/>
@@ -756,8 +756,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1685">
+  <cellStyleXfs count="1699">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2451,7 +2465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1685">
+  <cellStyles count="1699">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3294,6 +3308,13 @@
     <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4136,6 +4157,13 @@
     <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9355,7 +9383,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10228,8 +10256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10600,7 +10628,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D17" activeCellId="1" sqref="D15 D17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17556,7 +17584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="684" firstSheet="26" activeTab="27"/>
+    <workbookView xWindow="22720" yWindow="1240" windowWidth="24980" windowHeight="16240" tabRatio="684" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="A21.sector.csv" sheetId="5" r:id="rId1"/>
@@ -22,47 +22,48 @@
     <sheet name="A22.subsector_logit.csv" sheetId="25" r:id="rId13"/>
     <sheet name="A22.subsector_shrwt.csv" sheetId="8" r:id="rId14"/>
     <sheet name="A22.subsector_interp.csv" sheetId="26" r:id="rId15"/>
-    <sheet name="A22.globaltech_cost.csv" sheetId="27" r:id="rId16"/>
-    <sheet name="A22.globaltech_coef.csv" sheetId="3" r:id="rId17"/>
-    <sheet name="A22.globaltech_shrwt.csv" sheetId="29" r:id="rId18"/>
-    <sheet name="A22.globaltech_retirement.csv" sheetId="28" r:id="rId19"/>
-    <sheet name="A22.globaltech_co2capture.csv" sheetId="30" r:id="rId20"/>
-    <sheet name="A23.sector.csv" sheetId="35" r:id="rId21"/>
-    <sheet name="A23.subsector_logit.csv" sheetId="37" r:id="rId22"/>
-    <sheet name="A23.subsector_shrwt.csv" sheetId="38" r:id="rId23"/>
-    <sheet name="A23.subsector_interp.csv" sheetId="39" r:id="rId24"/>
-    <sheet name="A23.chp_elecratio.csv" sheetId="42" r:id="rId25"/>
-    <sheet name="A23.globalinttech.csv" sheetId="49" r:id="rId26"/>
-    <sheet name="A23.globaltech_shrwt.csv" sheetId="45" r:id="rId27"/>
-    <sheet name="A23.globaltech_keyword.csv" sheetId="69" r:id="rId28"/>
-    <sheet name="A23.globaltech_eff.csv" sheetId="43" r:id="rId29"/>
-    <sheet name="A23.globaltech_capital.csv" sheetId="46" r:id="rId30"/>
-    <sheet name="A23.globaltech_OMfixed.csv" sheetId="47" r:id="rId31"/>
-    <sheet name="A23.globaltech_OMvar.csv" sheetId="44" r:id="rId32"/>
-    <sheet name="A23.globaltech_retirement.csv" sheetId="48" r:id="rId33"/>
-    <sheet name="A23.globaltech_co2capture.csv" sheetId="50" r:id="rId34"/>
-    <sheet name="A24.sector.csv" sheetId="53" r:id="rId35"/>
-    <sheet name="A24.subsector_logit.csv" sheetId="54" r:id="rId36"/>
-    <sheet name="A24.subsector_shrwt.csv" sheetId="55" r:id="rId37"/>
-    <sheet name="A24.subsector_interp.csv" sheetId="56" r:id="rId38"/>
-    <sheet name="A24.globaltech_cost.csv" sheetId="57" r:id="rId39"/>
-    <sheet name="A24.globaltech_coef.csv" sheetId="58" r:id="rId40"/>
-    <sheet name="A24.globaltech_shrwt.csv" sheetId="59" r:id="rId41"/>
-    <sheet name="A25.sector.csv" sheetId="60" r:id="rId42"/>
-    <sheet name="A25.subsector_logit.csv" sheetId="61" r:id="rId43"/>
-    <sheet name="A25.globaltech_keyword.csv" sheetId="71" r:id="rId44"/>
-    <sheet name="A25.subsector_shrwt.csv" sheetId="62" r:id="rId45"/>
-    <sheet name="A25.globaltech_cost.csv" sheetId="64" r:id="rId46"/>
-    <sheet name="A25.globaltech_eff.csv" sheetId="65" r:id="rId47"/>
-    <sheet name="A25.globaltech_shrwt.csv" sheetId="66" r:id="rId48"/>
-    <sheet name="A25.globaltech_co2capture.csv" sheetId="67" r:id="rId49"/>
-    <sheet name="A26.sector.csv" sheetId="6" r:id="rId50"/>
-    <sheet name="A26.subsector_logit.csv" sheetId="32" r:id="rId51"/>
-    <sheet name="A26.subsector_shrwt.csv" sheetId="33" r:id="rId52"/>
-    <sheet name="A26.subsector_interp.csv" sheetId="51" r:id="rId53"/>
-    <sheet name="A26.globaltech_cost.csv" sheetId="31" r:id="rId54"/>
-    <sheet name="A26.globaltech_eff.csv" sheetId="7" r:id="rId55"/>
-    <sheet name="A26.globaltech_shrwt.csv" sheetId="52" r:id="rId56"/>
+    <sheet name="A22.globaltech_interp.csv" sheetId="72" r:id="rId16"/>
+    <sheet name="A22.globaltech_cost.csv" sheetId="27" r:id="rId17"/>
+    <sheet name="A22.globaltech_coef.csv" sheetId="3" r:id="rId18"/>
+    <sheet name="A22.globaltech_shrwt.csv" sheetId="29" r:id="rId19"/>
+    <sheet name="A22.globaltech_retirement.csv" sheetId="28" r:id="rId20"/>
+    <sheet name="A22.globaltech_co2capture.csv" sheetId="30" r:id="rId21"/>
+    <sheet name="A23.sector.csv" sheetId="35" r:id="rId22"/>
+    <sheet name="A23.subsector_logit.csv" sheetId="37" r:id="rId23"/>
+    <sheet name="A23.subsector_shrwt.csv" sheetId="38" r:id="rId24"/>
+    <sheet name="A23.subsector_interp.csv" sheetId="39" r:id="rId25"/>
+    <sheet name="A23.chp_elecratio.csv" sheetId="42" r:id="rId26"/>
+    <sheet name="A23.globalinttech.csv" sheetId="49" r:id="rId27"/>
+    <sheet name="A23.globaltech_shrwt.csv" sheetId="45" r:id="rId28"/>
+    <sheet name="A23.globaltech_keyword.csv" sheetId="69" r:id="rId29"/>
+    <sheet name="A23.globaltech_eff.csv" sheetId="43" r:id="rId30"/>
+    <sheet name="A23.globaltech_capital.csv" sheetId="46" r:id="rId31"/>
+    <sheet name="A23.globaltech_OMfixed.csv" sheetId="47" r:id="rId32"/>
+    <sheet name="A23.globaltech_OMvar.csv" sheetId="44" r:id="rId33"/>
+    <sheet name="A23.globaltech_retirement.csv" sheetId="48" r:id="rId34"/>
+    <sheet name="A23.globaltech_co2capture.csv" sheetId="50" r:id="rId35"/>
+    <sheet name="A24.sector.csv" sheetId="53" r:id="rId36"/>
+    <sheet name="A24.subsector_logit.csv" sheetId="54" r:id="rId37"/>
+    <sheet name="A24.subsector_shrwt.csv" sheetId="55" r:id="rId38"/>
+    <sheet name="A24.subsector_interp.csv" sheetId="56" r:id="rId39"/>
+    <sheet name="A24.globaltech_cost.csv" sheetId="57" r:id="rId40"/>
+    <sheet name="A24.globaltech_coef.csv" sheetId="58" r:id="rId41"/>
+    <sheet name="A24.globaltech_shrwt.csv" sheetId="59" r:id="rId42"/>
+    <sheet name="A25.sector.csv" sheetId="60" r:id="rId43"/>
+    <sheet name="A25.subsector_logit.csv" sheetId="61" r:id="rId44"/>
+    <sheet name="A25.globaltech_keyword.csv" sheetId="71" r:id="rId45"/>
+    <sheet name="A25.subsector_shrwt.csv" sheetId="62" r:id="rId46"/>
+    <sheet name="A25.globaltech_cost.csv" sheetId="64" r:id="rId47"/>
+    <sheet name="A25.globaltech_eff.csv" sheetId="65" r:id="rId48"/>
+    <sheet name="A25.globaltech_shrwt.csv" sheetId="66" r:id="rId49"/>
+    <sheet name="A25.globaltech_co2capture.csv" sheetId="67" r:id="rId50"/>
+    <sheet name="A26.sector.csv" sheetId="6" r:id="rId51"/>
+    <sheet name="A26.subsector_logit.csv" sheetId="32" r:id="rId52"/>
+    <sheet name="A26.subsector_shrwt.csv" sheetId="33" r:id="rId53"/>
+    <sheet name="A26.subsector_interp.csv" sheetId="51" r:id="rId54"/>
+    <sheet name="A26.globaltech_cost.csv" sheetId="31" r:id="rId55"/>
+    <sheet name="A26.globaltech_eff.csv" sheetId="7" r:id="rId56"/>
+    <sheet name="A26.globaltech_shrwt.csv" sheetId="52" r:id="rId57"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="209">
   <si>
     <t>technology</t>
   </si>
@@ -699,6 +700,9 @@
   <si>
     <t># Hydrogen technology keywords</t>
   </si>
+  <si>
+    <t># Primary energy transformation technology interpolation (for techs that may have cal values in subsectors with multiple calibrated technologies)</t>
+  </si>
 </sst>
 </file>
 
@@ -756,8 +760,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1699">
+  <cellStyleXfs count="1709">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2465,7 +2479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1699">
+  <cellStyles count="1709">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3315,6 +3329,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4164,6 +4183,11 @@
     <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4496,7 +4520,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4729,7 +4753,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4843,7 +4867,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5031,7 +5055,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5136,7 +5160,7 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>-13</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5147,7 +5171,7 @@
         <v>45</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5356,7 +5380,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5590,10 +5614,179 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6083,12 +6276,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6213,16 +6406,13 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:G7" si="0">1/421.377</f>
-        <v>2.3731717677993817E-3</v>
+        <v>2.3731720000000002E-3</v>
       </c>
       <c r="F6">
-        <f>1/421.377</f>
-        <v>2.3731717677993817E-3</v>
+        <v>2.3731720000000002E-3</v>
       </c>
       <c r="G6">
-        <f>1/421.377</f>
-        <v>2.3731717677993817E-3</v>
+        <v>2.3731720000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6239,16 +6429,13 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2.3731717677993817E-3</v>
+        <v>2.3731720000000002E-3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>2.3731717677993817E-3</v>
+        <v>2.3731720000000002E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2.3731717677993817E-3</v>
+        <v>2.3731720000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6356,17 +6543,14 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
-        <f>E11*1.04</f>
-        <v>2.1964800000000002</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ref="F12:G12" si="1">F11*1.04</f>
-        <v>2.1964800000000002</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0373600000000001</v>
+      <c r="E12">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="F12">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="G12">
+        <v>2.0369999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6382,17 +6566,14 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
-        <f>E11*1.1</f>
-        <v>2.3232000000000004</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" ref="F13:G13" si="2">F11*1.1</f>
-        <v>2.3232000000000004</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1549</v>
+      <c r="E13">
+        <v>2.323</v>
+      </c>
+      <c r="F13">
+        <v>2.323</v>
+      </c>
+      <c r="G13">
+        <v>2.1549999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6454,17 +6635,14 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1">
-        <f>E15*1.04</f>
-        <v>2.1392799999999998</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" ref="F16" si="3">F15*1.04</f>
-        <v>2.1392799999999998</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" ref="G16" si="4">G15*1.04</f>
-        <v>1.8418399999999999</v>
+      <c r="E16">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="F16">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="G16">
+        <v>1.8420000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6480,17 +6658,14 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="1">
-        <f>E15*1.1</f>
-        <v>2.2627000000000002</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" ref="F17:G17" si="5">F15*1.1</f>
-        <v>2.2627000000000002</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="5"/>
-        <v>1.9481000000000002</v>
+      <c r="E17">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="F17">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="G17">
+        <v>1.948</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6529,17 +6704,14 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1">
-        <f>E18*1.04</f>
-        <v>2.0394400000000004</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ref="F19" si="6">F18*1.04</f>
-        <v>2.0394400000000004</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ref="G19" si="7">G18*1.04</f>
-        <v>1.8085600000000002</v>
+      <c r="E19">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="F19">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="G19">
+        <v>1.8089999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6555,17 +6727,14 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1">
-        <f>E18*1.1</f>
-        <v>2.1571000000000002</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" ref="F20:G20" si="8">F18*1.1</f>
-        <v>2.1571000000000002</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="8"/>
-        <v>1.9129000000000003</v>
+      <c r="E20">
+        <v>2.157</v>
+      </c>
+      <c r="F20">
+        <v>2.157</v>
+      </c>
+      <c r="G20">
+        <v>1.913</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6717,12 +6886,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7271,12 +7440,197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>-6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-6</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>-3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7979,197 +8333,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>-6</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>-6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>-6</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>-6</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>-6</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>-3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8315,7 +8484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -8417,7 +8586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8574,7 +8743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -8780,7 +8949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -9119,7 +9288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -9182,7 +9351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -9378,12 +9547,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10252,11 +10421,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -10623,7 +10792,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2050</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
@@ -11878,230 +12270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>2050</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -13287,7 +13456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -14421,7 +14590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -15218,7 +15387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -15921,7 +16090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -16098,7 +16267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -16165,7 +16334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -16256,7 +16425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -16365,7 +16534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -16504,7 +16673,301 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>2050</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>2185</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>2050</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -16741,301 +17204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7">
-        <v>2050</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8">
-        <v>2185</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9">
-        <v>2050</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -17167,7 +17336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -17283,7 +17452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -17401,7 +17570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -17580,7 +17749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -17755,7 +17924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -18143,7 +18312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -18786,7 +18955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -19427,7 +19596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -19730,7 +19899,279 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>1971</v>
+      </c>
+      <c r="F2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>0.15</v>
+      </c>
+      <c r="F6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>0.15</v>
+      </c>
+      <c r="F7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -19878,279 +20319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <v>1971</v>
-      </c>
-      <c r="F2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4">
-        <v>0.15</v>
-      </c>
-      <c r="F4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5">
-        <v>0.25</v>
-      </c>
-      <c r="F5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6">
-        <v>0.15</v>
-      </c>
-      <c r="F6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7">
-        <v>0.15</v>
-      </c>
-      <c r="F7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -20421,7 +20590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -20611,7 +20780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -20846,7 +21015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -21123,7 +21292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -21519,7 +21688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -21878,7 +22047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -22224,7 +22393,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22436,14 +22605,14 @@
       <c r="D10" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="3">
-        <v>111.78730206783794</v>
-      </c>
-      <c r="F10" s="3">
-        <v>111.78730206783794</v>
-      </c>
-      <c r="G10" s="3">
-        <v>111.78730206783794</v>
+      <c r="E10">
+        <v>111.79</v>
+      </c>
+      <c r="F10">
+        <v>111.79</v>
+      </c>
+      <c r="G10">
+        <v>111.79</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -22459,14 +22628,14 @@
       <c r="D11" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="3">
-        <v>582.47719635002909</v>
-      </c>
-      <c r="F11" s="3">
-        <v>582.47719635002909</v>
-      </c>
-      <c r="G11" s="3">
-        <v>582.47719635002909</v>
+      <c r="E11">
+        <v>582.48</v>
+      </c>
+      <c r="F11">
+        <v>582.48</v>
+      </c>
+      <c r="G11">
+        <v>582.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -22505,14 +22674,14 @@
       <c r="D13" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="3">
-        <v>142.57460317460317</v>
-      </c>
-      <c r="F13" s="3">
-        <v>142.57460317460317</v>
-      </c>
-      <c r="G13" s="3">
-        <v>142.57460317460317</v>
+      <c r="E13">
+        <v>142.57</v>
+      </c>
+      <c r="F13">
+        <v>142.57</v>
+      </c>
+      <c r="G13">
+        <v>142.57</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -22528,13 +22697,13 @@
       <c r="D14" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>128</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>128</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>128</v>
       </c>
     </row>
@@ -22625,7 +22794,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22720" yWindow="1240" windowWidth="24980" windowHeight="16240" tabRatio="684" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="684" firstSheet="52" activeTab="54"/>
   </bookViews>
   <sheets>
     <sheet name="A21.sector.csv" sheetId="5" r:id="rId1"/>
@@ -5616,7 +5616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -21296,8 +21296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21457,16 +21457,16 @@
         <v>57</v>
       </c>
       <c r="E7">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -21613,16 +21613,16 @@
         <v>57</v>
       </c>
       <c r="E13">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="F13">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="G13">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H13">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -21639,16 +21639,16 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8">

--- a/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A20s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="684" firstSheet="52" activeTab="54"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="684" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="A21.sector.csv" sheetId="5" r:id="rId1"/>
@@ -760,8 +760,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1709">
+  <cellStyleXfs count="1715">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2479,7 +2485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1709">
+  <cellStyles count="1715">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3334,6 +3340,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4188,6 +4197,9 @@
     <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5201,7 +5213,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5330,7 +5342,7 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5344,7 +5356,7 @@
         <v>45</v>
       </c>
       <c r="C10">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E10">
         <v>0.4</v>
@@ -5358,7 +5370,7 @@
         <v>46</v>
       </c>
       <c r="C11">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -5379,8 +5391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5555,7 +5567,7 @@
         <v>49</v>
       </c>
       <c r="E9">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -5575,7 +5587,7 @@
         <v>49</v>
       </c>
       <c r="E10">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -5595,7 +5607,7 @@
         <v>49</v>
       </c>
       <c r="E11">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
@@ -21296,7 +21308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
